--- a/Juan_Work/gene association.xlsx
+++ b/Juan_Work/gene association.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="609">
   <si>
     <t>gene association</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2108,6 +2108,39 @@
   </si>
   <si>
     <t>Ehb'</t>
+  </si>
+  <si>
+    <t>H2O_c0 + Formylmethanofuran_c0 + Fdox*1_c0 &lt;=&gt; H_c0 + CO2_c0 + Methanofuran_c0 + Fdred*1_c0</t>
+  </si>
+  <si>
+    <t>rxn06299_c0</t>
+  </si>
+  <si>
+    <t>Reduced_coenzyme_F420_c0 + 5_10-Methylenetetrahydromethanopterin_c0 &lt;=&gt; 5-Methyl-H4MPT_c0 + Coenzyme_F420_c0</t>
+  </si>
+  <si>
+    <t>O2_c0 + Taurine_c0 + FMNH2_c0  -&gt; Sulfite_c0 + H2O_c0 + Aminoacetaldehyde_c0 + FMN_c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Methyl-H4MPT_c0 + CoM_c0 + 2.000000 Na_c0  &lt;=&gt; Methyl_CoM_c0 + H4MPT_c0 + 2.000000 Na_e0 </t>
+  </si>
+  <si>
+    <t>Methyl_CoM_c0 + HTP_c0  &lt;=&gt; CoM-S-S-CoB_c0 + EX_Methane_c0</t>
+  </si>
+  <si>
+    <t>mmp1691</t>
+  </si>
+  <si>
+    <t>tungsten-containing formyl-MFR dehydrogenases</t>
+  </si>
+  <si>
+    <t>non-F420-reducing hydrogenases (cysteine-containing)</t>
+  </si>
+  <si>
+    <t>non-F420-reducing hydrogenases (selenocysteine-containing)</t>
+  </si>
+  <si>
+    <t>H_c0 + Coenzyme_F420_c0 + 5_10-Methylenetetrahydromethanopterin_c0  &lt;=&gt; H2_c0 + Reduced_coenzyme_F420_c0 + 5_10-Methenyltetrahyd...'' &lt;Preview truncated at 128 characters&gt;'</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2222,6 +2255,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2536,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H321"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2559,11 +2595,11 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -5457,10 +5493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5468,7 +5504,7 @@
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="158.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="161.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5505,15 +5541,18 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5536,7 +5575,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5546,11 +5585,17 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
@@ -5559,6 +5604,9 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
@@ -5567,6 +5615,9 @@
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
@@ -5647,1356 +5698,1397 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>556</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="1" t="s">
         <v>93</v>
       </c>
     </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>558</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="1" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="B33" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="1" t="s">
         <v>103</v>
       </c>
     </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="B35" s="1" t="s">
-        <v>578</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="B36" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="C37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="1" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4">
+      <c r="B42" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4">
+      <c r="B44" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>579</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="1" t="s">
         <v>137</v>
       </c>
     </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>148</v>
+        <v>570</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>597</v>
+        <v>582</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="1" t="s">
-        <v>583</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>581</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="1" t="s">
-        <v>585</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="2:4">
+      <c r="B58" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="C60" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="C61" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="C62" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="2:4">
+      <c r="B63" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C63" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="1" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="B67" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="B71" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="B72" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:4">
+      <c r="B73" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C73" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="B76" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D76" s="1" t="s">
         <v>210</v>
       </c>
     </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="C79" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="C80" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="C81" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="C82" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="2:4">
+      <c r="B83" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="C83" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="C85" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="C86" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="C87" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="2:4">
+      <c r="B88" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C88" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="C89" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="2:4">
+      <c r="B90" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
-      <c r="C90" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="C92" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="C93" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="C94" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="C95" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="C96" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:4">
+      <c r="B97" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="C97" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="B98" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="B99" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D99" s="1" t="s">
         <v>245</v>
       </c>
     </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:4">
+      <c r="B102" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="C102" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="B103" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:4">
+      <c r="B104" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="C104" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="B105" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="B106" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="B107" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:4">
+      <c r="B108" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="B109" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:4">
+      <c r="B110" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="B111" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="B112" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:4">
+      <c r="B113" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="C113" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="B114" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="B115" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="B116" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="B117" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="B118" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D118" s="1" t="s">
         <v>297</v>
       </c>
     </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="B120" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="B121" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D121" s="1" t="s">
         <v>304</v>
       </c>
     </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="B123" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="B124" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="B125" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="B126" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="B127" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="B128" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="C128" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="2:4">
+      <c r="B129" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C129" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="C130" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="2:4">
+      <c r="B131" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="C131" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C132" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="2:4">
       <c r="C133" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="C135" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4">
-      <c r="C134" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4">
-      <c r="B135" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="136" spans="2:4">
       <c r="C136" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="2:4">
+      <c r="B137" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="C137" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" spans="2:4">
       <c r="B138" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="2:4">
       <c r="C140" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="C142" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
-      <c r="C141" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
     <row r="143" spans="2:4">
+      <c r="B143" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="C143" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="2:4">
       <c r="B144" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="B145" s="1" t="s">
-        <v>358</v>
+        <v>586</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>356</v>
+        <v>153</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="B146" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D146" s="1" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="149" spans="1:4">
+      <c r="B149" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="C149" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="B150" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="B151" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:4">
+      <c r="B152" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="C152" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="B153" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="B154" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="155" spans="1:4">
+      <c r="B155" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="C155" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="B156" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="B157" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="1:4">
+      <c r="B158" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="C158" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="B159" s="1" t="s">
-        <v>590</v>
+        <v>234</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>369</v>
+        <v>219</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>370</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="B160" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C160" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="C161" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="C162" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="C163" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:4">
+      <c r="B164" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="C164" s="1" t="s">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="B165" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D165" s="1" t="s">
         <v>370</v>
       </c>
     </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="1" t="s">
-        <v>394</v>
+      <c r="B168" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="B169" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="B170" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="C170" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="B171" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>402</v>
@@ -7015,441 +7107,422 @@
     </row>
     <row r="173" spans="1:4">
       <c r="B173" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="C174" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="B175" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176" spans="1:4">
+      <c r="B176" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="C176" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C178" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="180" spans="2:4">
+      <c r="B180" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="C180" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="B181" s="1" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="C182" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="C183" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="C184" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="C185" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="186" spans="2:4">
       <c r="C186" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="187" spans="2:4">
       <c r="C187" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="C188" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="C189" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="2:4">
+      <c r="B190" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="C190" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="C191" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="C192" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="C194" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>587</v>
+      </c>
       <c r="C195" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="B196" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="C197" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="B198" s="1" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="C199" s="1" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="B200" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="C200" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="C201" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="C202" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="C203" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="C204" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="C205" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="C206" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="207" spans="1:4">
+      <c r="B207" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="C207" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="C208" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="B209" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="C209" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="C210" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="211" spans="1:4">
+      <c r="B211" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C211" s="1" t="s">
-        <v>455</v>
+        <v>182</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>456</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212" spans="1:4">
+      <c r="B212" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="C212" s="1" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="B213" s="1" t="s">
-        <v>588</v>
+        <v>479</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>182</v>
+        <v>477</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="B214" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="B215" s="1" t="s">
-        <v>479</v>
+        <v>589</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D217" s="1" t="s">
         <v>482</v>
       </c>
     </row>
+    <row r="216" spans="1:4">
+      <c r="B216" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
     <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="B218" s="1" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>504</v>
+        <v>530</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D222" s="1" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7461,10 +7534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7549,13 +7622,16 @@
         <v>563</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>564</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
@@ -7607,106 +7683,106 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>83</v>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>185</v>
+        <v>142</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>152</v>
@@ -7714,70 +7790,70 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>250</v>
@@ -7785,105 +7861,105 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>492</v>
@@ -7891,7 +7967,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>492</v>
@@ -7899,7 +7975,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>492</v>
@@ -7907,7 +7983,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>492</v>
@@ -7915,7 +7991,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>492</v>
@@ -7923,15 +7999,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>499</v>
@@ -7939,15 +8015,15 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>503</v>
@@ -7955,7 +8031,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>503</v>
@@ -7963,94 +8039,94 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>524</v>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>529</v>
@@ -8058,7 +8134,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>529</v>
@@ -8066,7 +8142,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>529</v>
@@ -8074,15 +8150,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>539</v>
@@ -8090,7 +8166,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>539</v>
@@ -8098,7 +8174,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>539</v>
@@ -8106,7 +8182,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>539</v>
@@ -8114,7 +8190,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>539</v>
@@ -8122,7 +8198,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>539</v>
@@ -8130,9 +8206,17 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>539</v>
       </c>
     </row>
